--- a/配置文档/实体配置相关/单位配置.xlsx
+++ b/配置文档/实体配置相关/单位配置.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20610" windowHeight="6495"/>
+    <workbookView windowWidth="19965" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_UnitData_单位基础表" sheetId="1" r:id="rId1"/>
-    <sheet name="UnitWeapon_单位武器配置" sheetId="3" r:id="rId2"/>
-    <sheet name="数据类型" sheetId="2" r:id="rId3"/>
+    <sheet name="cfg_UnitGroupData_单位组配置" sheetId="4" r:id="rId1"/>
+    <sheet name="cfg_UnitData_单位基础表" sheetId="1" r:id="rId2"/>
+    <sheet name="UnitWeapon_单位武器配置" sheetId="3" r:id="rId3"/>
+    <sheet name="数据类型" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="2">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="2">数据类型!$A$1:$D$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="3">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="3">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="3">数据类型!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,12 +43,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
   <si>
     <t>字段导出设置
 默认#BASEVALUE</t>
   </si>
   <si>
+    <t>单位组ID
+（每个建筑特有的记号）</t>
+  </si>
+  <si>
+    <t>单位组名称</t>
+  </si>
+  <si>
+    <t>单位组描述</t>
+  </si>
+  <si>
+    <t>单位组出场描述</t>
+  </si>
+  <si>
+    <t>单位组头领id
+cfg_UnitData_单位基础表id</t>
+  </si>
+  <si>
+    <t>单位组其他单位id列表</t>
+  </si>
+  <si>
+    <t>字段导出设置</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>ShowDescribe</t>
+  </si>
+  <si>
+    <t>CaptainId</t>
+  </si>
+  <si>
+    <t>TempLateList</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>&lt;(INT)&gt;</t>
+  </si>
+  <si>
     <t>单位ID
 （每个建筑特有的记号）</t>
   </si>
@@ -55,10 +112,7 @@
     <t>单位名称</t>
   </si>
   <si>
-    <t>单位类型</t>
-  </si>
-  <si>
-    <t>属性模板列表
+    <t>属性模板id列表
 属性是cfg_AttributeTemplate_属性模板表与cfg_AttributeData_实体属性表覆盖的结果</t>
   </si>
   <si>
@@ -84,21 +138,12 @@
     <t>阴影偏移</t>
   </si>
   <si>
-    <t>字段导出设置</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
     <t>UnitId</t>
   </si>
   <si>
     <t>UnitName</t>
   </si>
   <si>
-    <t>TempLateList</t>
-  </si>
-  <si>
     <t>ObjectId</t>
   </si>
   <si>
@@ -117,15 +162,6 @@
     <t>ShadowOffset</t>
   </si>
   <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
     <t>&lt;INT&gt;</t>
   </si>
   <si>
@@ -280,9 +316,6 @@
   </si>
   <si>
     <t>&lt;(SHORT)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(INT)&gt;</t>
   </si>
   <si>
     <t>&lt;(LONG)&gt;</t>
@@ -1029,14 +1062,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1408,10 +1438,132 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
+    <col min="2" max="2" width="24.2666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.675" customWidth="1"/>
+    <col min="4" max="4" width="31.325" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="7" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42.75" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 D4 E4 F4 G4">
+      <formula1>数据类型!$B$2:$B$56</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1419,229 +1571,219 @@
     <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
     <col min="2" max="2" width="24.2666666666667" customWidth="1"/>
     <col min="3" max="3" width="14.675" customWidth="1"/>
-    <col min="4" max="4" width="18.675" customWidth="1"/>
-    <col min="5" max="6" width="31.325" customWidth="1"/>
-    <col min="7" max="7" width="49.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="32.9416666666667" customWidth="1"/>
-    <col min="9" max="9" width="31.475" customWidth="1"/>
-    <col min="10" max="10" width="26.175" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.9916666666667" customWidth="1"/>
+    <col min="4" max="5" width="31.325" customWidth="1"/>
+    <col min="6" max="6" width="49.2666666666667" customWidth="1"/>
+    <col min="7" max="7" width="32.9416666666667" customWidth="1"/>
+    <col min="8" max="8" width="31.475" customWidth="1"/>
+    <col min="9" max="9" width="26.175" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14.9916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="85" customHeight="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="1" ht="85" customHeight="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14">
+        <v>2</v>
+      </c>
+      <c r="J2" s="14">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="3" s="7" customFormat="1" ht="27" customHeight="1" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:11">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="43" customHeight="1" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="85" customHeight="1" spans="1:10">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="85" customHeight="1" spans="1:10">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7">
-        <v>2</v>
-      </c>
-      <c r="I2" s="7">
-        <v>2</v>
-      </c>
-      <c r="J2" s="15">
-        <v>2</v>
-      </c>
-      <c r="K2" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="27" customHeight="1" spans="1:11">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="43" customHeight="1" spans="1:11">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" ht="85" customHeight="1" spans="1:11">
-      <c r="A5" s="6">
+      <c r="F6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="85" customHeight="1" spans="1:11">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>30</v>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="85" customHeight="1" spans="1:9">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="85" customHeight="1" spans="1:8">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 F4:K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 E4 F4:J4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -1651,7 +1793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D4"/>
@@ -1663,65 +1805,65 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
-    <col min="2" max="2" width="24.2666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2666666666667" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.675" customWidth="1"/>
     <col min="4" max="4" width="31.325" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="D2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D37"/>
@@ -1747,22 +1889,22 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="129.375" customWidth="1"/>
+    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1770,13 +1912,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1784,13 +1926,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1798,13 +1940,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1812,13 +1954,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1826,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1840,13 +1982,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1854,13 +1996,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1868,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1882,13 +2024,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1896,13 +2038,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1910,13 +2052,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1924,10 +2066,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1935,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1943,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1951,7 +2093,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1959,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1967,7 +2109,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1975,7 +2117,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1983,7 +2125,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1991,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1999,7 +2141,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2007,7 +2149,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2015,7 +2157,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2023,7 +2165,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2031,13 +2173,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2045,13 +2187,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2059,13 +2201,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2073,13 +2215,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2087,10 +2229,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2098,13 +2240,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2112,13 +2254,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2126,13 +2268,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2140,13 +2282,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2154,13 +2296,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2168,24 +2310,24 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>111</v>
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/实体配置相关/单位配置.xlsx
+++ b/配置文档/实体配置相关/单位配置.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19965" windowHeight="7710" activeTab="1"/>
+    <workbookView windowWidth="17805" windowHeight="7080" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_UnitGroupData_单位组配置" sheetId="4" r:id="rId1"/>
-    <sheet name="cfg_UnitData_单位基础表" sheetId="1" r:id="rId2"/>
-    <sheet name="UnitWeapon_单位武器配置" sheetId="3" r:id="rId3"/>
-    <sheet name="数据类型" sheetId="2" r:id="rId4"/>
+    <sheet name="cfg_UnitData_单位基础表" sheetId="1" r:id="rId1"/>
+    <sheet name="cfg_UnitLogic_单位逻辑表" sheetId="4" r:id="rId2"/>
+    <sheet name="数据类型" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="3">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="3">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="3">数据类型!$A$1:$D$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="2">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="2">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="2">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,30 +42,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="119">
   <si>
     <t>字段导出设置
 默认#BASEVALUE</t>
   </si>
   <si>
-    <t>单位组ID
-（每个建筑特有的记号）</t>
-  </si>
-  <si>
-    <t>单位组名称</t>
-  </si>
-  <si>
-    <t>单位组描述</t>
-  </si>
-  <si>
-    <t>单位组出场描述</t>
-  </si>
-  <si>
-    <t>单位组头领id
-cfg_UnitData_单位基础表id</t>
-  </si>
-  <si>
-    <t>单位组其他单位id列表</t>
+    <t>实体id</t>
+  </si>
+  <si>
+    <t>单位名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">动画类型列表
+注意默认移动方向是向上
+</t>
+  </si>
+  <si>
+    <t>阴影图像</t>
+  </si>
+  <si>
+    <t>阴影偏移</t>
   </si>
   <si>
     <t>字段导出设置</t>
@@ -75,249 +71,221 @@
     <t>字段名称</t>
   </si>
   <si>
-    <t>GroupId</t>
+    <t>ObjectId</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>AnimaTypeList</t>
+  </si>
+  <si>
+    <t>ShadowSprite</t>
+  </si>
+  <si>
+    <t>ShadowOffset</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>自律体-1</t>
+  </si>
+  <si>
+    <t>#BASEVALUE</t>
+  </si>
+  <si>
+    <t>自律体-2</t>
+  </si>
+  <si>
+    <t>单位类型
+1 陆军</t>
+  </si>
+  <si>
+    <t>是否可以旋转武器
+表示武器能够跟随目标旋转</t>
+  </si>
+  <si>
+    <t>免疫buffId列表</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Describe</t>
-  </si>
-  <si>
-    <t>ShowDescribe</t>
-  </si>
-  <si>
-    <t>CaptainId</t>
-  </si>
-  <si>
-    <t>TempLateList</t>
-  </si>
-  <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>STR</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>IsRotateWeapon</t>
+  </si>
+  <si>
+    <t>ImmuneList</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>数据类型编号</t>
+  </si>
+  <si>
+    <t>数据类型名称</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>数据类型描述</t>
+  </si>
+  <si>
+    <t>数据类型示例</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
+  </si>
+  <si>
+    <t>True       False</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
+  </si>
+  <si>
+    <t>11112      -21232</t>
+  </si>
+  <si>
+    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
+  </si>
+  <si>
+    <t>1212312321</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
+  </si>
+  <si>
+    <t>52122122111111</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
+  </si>
+  <si>
+    <t>554.1233  622125.1231</t>
+  </si>
+  <si>
+    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>&lt;BOOL&gt;</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
+  </si>
+  <si>
+    <t>True|True|False</t>
+  </si>
+  <si>
+    <t>&lt;SHORT&gt;</t>
+  </si>
+  <si>
+    <t>短整数列表，用于保存一个由短整数组成的列表</t>
+  </si>
+  <si>
+    <t>123|121|434|-121</t>
+  </si>
+  <si>
+    <t>整数列表，用于保存一个由整数组成的列表</t>
+  </si>
+  <si>
+    <t>2323232|1212|2343|545</t>
+  </si>
+  <si>
+    <t>&lt;LONG&gt;</t>
+  </si>
+  <si>
+    <t>长整数列表，用于保存一个由长整数组成的列表</t>
+  </si>
+  <si>
+    <t>52122122111111|1223434433</t>
+  </si>
+  <si>
+    <t>&lt;FLOAT&gt;</t>
+  </si>
+  <si>
+    <t>小数列表，用于保存一个由小数组成的列表</t>
+  </si>
+  <si>
+    <t>554.1233|12.12</t>
+  </si>
+  <si>
+    <t>&lt;STR&gt;</t>
+  </si>
+  <si>
+    <t>字符串列表</t>
+  </si>
+  <si>
+    <t>(BOOL)</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>(SHORT)</t>
+  </si>
+  <si>
+    <t>(INT)</t>
+  </si>
+  <si>
+    <t>(LONG)</t>
+  </si>
+  <si>
+    <t>(FLOAT)</t>
+  </si>
+  <si>
+    <t>(STR)</t>
+  </si>
+  <si>
+    <t>&lt;(BOOL)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(SHORT)&gt;</t>
   </si>
   <si>
     <t>&lt;(INT)&gt;</t>
   </si>
   <si>
-    <t>单位ID
-（每个建筑特有的记号）</t>
-  </si>
-  <si>
-    <t>单位名称</t>
-  </si>
-  <si>
-    <t>属性模板id列表
-属性是cfg_AttributeTemplate_属性模板表与cfg_AttributeData_实体属性表覆盖的结果</t>
-  </si>
-  <si>
-    <t>实体id
-用于属性等配置(要求唯一)</t>
-  </si>
-  <si>
-    <t>单位体积
-（算直径吧，比较好算，按像素算，
-大多数单位都是敌人，也无所谓碰撞体精确了）</t>
-  </si>
-  <si>
-    <t>单位归属
-（该建筑默认属于那方阵营）导用cfg_Troops_阵营</t>
-  </si>
-  <si>
-    <t>动画类型列表</t>
-  </si>
-  <si>
-    <t>阴影图像</t>
-  </si>
-  <si>
-    <t>阴影偏移</t>
-  </si>
-  <si>
-    <t>UnitId</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-  </si>
-  <si>
-    <t>ObjectId</t>
-  </si>
-  <si>
-    <t>UnitSize</t>
-  </si>
-  <si>
-    <t>CampId</t>
-  </si>
-  <si>
-    <t>AnimaTypeList</t>
-  </si>
-  <si>
-    <t>ShadowSprite</t>
-  </si>
-  <si>
-    <t>ShadowOffset</t>
-  </si>
-  <si>
-    <t>&lt;INT&gt;</t>
-  </si>
-  <si>
-    <t>PNG</t>
-  </si>
-  <si>
-    <t>POINT</t>
-  </si>
-  <si>
-    <t>自律体-1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>#BASEVALUE</t>
-  </si>
-  <si>
-    <t>自律体-2</t>
-  </si>
-  <si>
-    <t>单位ID</t>
-  </si>
-  <si>
-    <t>数据类型编号</t>
-  </si>
-  <si>
-    <t>数据类型名称</t>
-  </si>
-  <si>
-    <t>数据类型描述</t>
-  </si>
-  <si>
-    <t>数据类型示例</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
-  </si>
-  <si>
-    <t>True       False</t>
-  </si>
-  <si>
-    <t>SHORT</t>
-  </si>
-  <si>
-    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
-  </si>
-  <si>
-    <t>11112      -21232</t>
-  </si>
-  <si>
-    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
-  </si>
-  <si>
-    <t>1212312321</t>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
-  </si>
-  <si>
-    <t>52122122111111</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
-  </si>
-  <si>
-    <t>554.1233  622125.1231</t>
-  </si>
-  <si>
-    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>&lt;BOOL&gt;</t>
-  </si>
-  <si>
-    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
-  </si>
-  <si>
-    <t>True|True|False</t>
-  </si>
-  <si>
-    <t>&lt;SHORT&gt;</t>
-  </si>
-  <si>
-    <t>短整数列表，用于保存一个由短整数组成的列表</t>
-  </si>
-  <si>
-    <t>123|121|434|-121</t>
-  </si>
-  <si>
-    <t>整数列表，用于保存一个由整数组成的列表</t>
-  </si>
-  <si>
-    <t>2323232|1212|2343|545</t>
-  </si>
-  <si>
-    <t>&lt;LONG&gt;</t>
-  </si>
-  <si>
-    <t>长整数列表，用于保存一个由长整数组成的列表</t>
-  </si>
-  <si>
-    <t>52122122111111|1223434433</t>
-  </si>
-  <si>
-    <t>&lt;FLOAT&gt;</t>
-  </si>
-  <si>
-    <t>小数列表，用于保存一个由小数组成的列表</t>
-  </si>
-  <si>
-    <t>554.1233|12.12</t>
-  </si>
-  <si>
-    <t>&lt;STR&gt;</t>
-  </si>
-  <si>
-    <t>字符串列表</t>
-  </si>
-  <si>
-    <t>(BOOL)</t>
-  </si>
-  <si>
-    <t>(SHORT)</t>
-  </si>
-  <si>
-    <t>(INT)</t>
-  </si>
-  <si>
-    <t>(LONG)</t>
-  </si>
-  <si>
-    <t>(FLOAT)</t>
-  </si>
-  <si>
-    <t>(STR)</t>
-  </si>
-  <si>
-    <t>&lt;(BOOL)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(SHORT)&gt;</t>
-  </si>
-  <si>
     <t>&lt;(LONG)&gt;</t>
   </si>
   <si>
@@ -330,12 +298,18 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -360,6 +334,9 @@
     <t>(1.2,3.5)|(1.4,3.2)</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -384,21 +361,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -418,6 +395,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -1062,11 +1048,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1093,20 +1082,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,12 +1157,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1438,352 +1419,151 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
-    <col min="2" max="2" width="24.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="31.325" customWidth="1"/>
     <col min="3" max="3" width="14.675" customWidth="1"/>
-    <col min="4" max="4" width="31.325" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="7" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31.475" customWidth="1"/>
+    <col min="5" max="5" width="26.175" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.9916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="1" ht="85" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="43" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="85" customHeight="1" spans="1:6">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="B5" s="7">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="85" customHeight="1" spans="1:6">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="12">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="85" customHeight="1" spans="1:4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 D4 E4 F4 G4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
-  <cols>
-    <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
-    <col min="2" max="2" width="24.2666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.675" customWidth="1"/>
-    <col min="4" max="5" width="31.325" customWidth="1"/>
-    <col min="6" max="6" width="49.2666666666667" customWidth="1"/>
-    <col min="7" max="7" width="32.9416666666667" customWidth="1"/>
-    <col min="8" max="8" width="31.475" customWidth="1"/>
-    <col min="9" max="9" width="26.175" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.9916666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="7" customFormat="1" ht="85" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>2</v>
-      </c>
-      <c r="J2" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="27" customHeight="1" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="43" customHeight="1" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="85" customHeight="1" spans="1:10">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="85" customHeight="1" spans="1:10">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="85" customHeight="1" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 E4 F4:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -1793,82 +1573,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
-    <col min="2" max="2" width="24.2666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.325" customWidth="1"/>
     <col min="3" max="3" width="14.675" customWidth="1"/>
-    <col min="4" max="4" width="31.325" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="6" width="34.9916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="42.75" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
+      <c r="B5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1"/>
+    <row r="8" s="4" customFormat="1"/>
+    <row r="9" s="4" customFormat="1"/>
+    <row r="10" s="4" customFormat="1"/>
+    <row r="11" s="4" customFormat="1"/>
+    <row r="12" s="4" customFormat="1"/>
+    <row r="13" s="4" customFormat="1"/>
+    <row r="14" s="4" customFormat="1"/>
+    <row r="15" s="4" customFormat="1"/>
+    <row r="16" s="4" customFormat="1"/>
+    <row r="17" s="4" customFormat="1"/>
+    <row r="18" s="4" customFormat="1"/>
+    <row r="19" s="4" customFormat="1"/>
+    <row r="20" s="4" customFormat="1"/>
+    <row r="21" s="4" customFormat="1"/>
+    <row r="22" s="4" customFormat="1"/>
+    <row r="23" s="4" customFormat="1"/>
+    <row r="24" s="4" customFormat="1"/>
+    <row r="25" s="4" customFormat="1"/>
+    <row r="26" s="4" customFormat="1"/>
+    <row r="27" s="4" customFormat="1"/>
+    <row r="28" s="4" customFormat="1"/>
+    <row r="29" s="4" customFormat="1"/>
+    <row r="30" s="4" customFormat="1"/>
+    <row r="31" s="4" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -1877,457 +1741,580 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/实体配置相关/单位配置.xlsx
+++ b/配置文档/实体配置相关/单位配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17805" windowHeight="7080" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="17655" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_UnitData_单位基础表" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="152">
   <si>
     <t>字段导出设置
 默认#BASEVALUE</t>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>单位名称</t>
+  </si>
+  <si>
+    <t>备注
+红-拉伦凯斯，黄-永恒秩序，蓝-坠落繁星</t>
   </si>
   <si>
     <t xml:space="preserve">动画类型列表
@@ -111,6 +115,102 @@
   </si>
   <si>
     <t>自律体-2</t>
+  </si>
+  <si>
+    <t>轮胎</t>
+  </si>
+  <si>
+    <t>原名-士兵，中距离，激光</t>
+  </si>
+  <si>
+    <t>撞击轮</t>
+  </si>
+  <si>
+    <t>原名-猎犬，近战，实弹</t>
+  </si>
+  <si>
+    <t>锯片</t>
+  </si>
+  <si>
+    <t>原名-电锯突击手，近战，实弹</t>
+  </si>
+  <si>
+    <t>牙钳</t>
+  </si>
+  <si>
+    <t>近战，实弹</t>
+  </si>
+  <si>
+    <t>分形</t>
+  </si>
+  <si>
+    <t>射手</t>
+  </si>
+  <si>
+    <t>原名-突击兵，中距离，实弹</t>
+  </si>
+  <si>
+    <t>电锯</t>
+  </si>
+  <si>
+    <t>原名-好战者，近战，实弹</t>
+  </si>
+  <si>
+    <t>喷火者</t>
+  </si>
+  <si>
+    <t>近距离，爆炸，燃烧</t>
+  </si>
+  <si>
+    <t>胶囊</t>
+  </si>
+  <si>
+    <t>近战，实弹，运输</t>
+  </si>
+  <si>
+    <t>尖刺</t>
+  </si>
+  <si>
+    <t>原名-尖刺勇士，远程，爆炸</t>
+  </si>
+  <si>
+    <t>侍卫</t>
+  </si>
+  <si>
+    <t>持有护盾</t>
+  </si>
+  <si>
+    <t>电击</t>
+  </si>
+  <si>
+    <t>近距离，激光，电磁</t>
+  </si>
+  <si>
+    <t>刺击者</t>
+  </si>
+  <si>
+    <t>双联射手</t>
+  </si>
+  <si>
+    <t>原名-攻击者，中距离，实弹</t>
+  </si>
+  <si>
+    <t>火炮手</t>
+  </si>
+  <si>
+    <t>远距离，实弹</t>
+  </si>
+  <si>
+    <t>轰击</t>
+  </si>
+  <si>
+    <t>近距离，爆炸</t>
+  </si>
+  <si>
+    <t>溶解</t>
+  </si>
+  <si>
+    <t>近距离，爆炸，腐化</t>
   </si>
   <si>
     <t>单位类型
@@ -416,7 +516,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,13 +534,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -607,7 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,12 +885,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -918,144 +1026,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1073,26 +1178,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1419,45 +1509,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
-    <col min="2" max="2" width="31.325" customWidth="1"/>
-    <col min="3" max="3" width="14.675" customWidth="1"/>
-    <col min="4" max="4" width="31.475" customWidth="1"/>
-    <col min="5" max="5" width="26.175" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.9916666666667" customWidth="1"/>
+    <col min="1" max="3" width="17.325" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.0833333333333" style="3" customWidth="1"/>
+    <col min="5" max="7" width="17.325" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="15.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="85" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="3" customFormat="1" ht="57" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -1466,104 +1557,496 @@
         <v>2</v>
       </c>
       <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
+    <row r="3" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="43" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="85" customHeight="1" spans="1:6">
-      <c r="A5" s="6">
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7">
         <v>1001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="85" customHeight="1" spans="1:6">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
         <v>1002</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="85" customHeight="1" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -1578,8 +2061,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1592,144 +2075,163 @@
   </cols>
   <sheetData>
     <row r="1" ht="42.75" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="3:6">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2001</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1"/>
-    <row r="8" s="4" customFormat="1"/>
-    <row r="9" s="4" customFormat="1"/>
-    <row r="10" s="4" customFormat="1"/>
-    <row r="11" s="4" customFormat="1"/>
-    <row r="12" s="4" customFormat="1"/>
-    <row r="13" s="4" customFormat="1"/>
-    <row r="14" s="4" customFormat="1"/>
-    <row r="15" s="4" customFormat="1"/>
-    <row r="16" s="4" customFormat="1"/>
-    <row r="17" s="4" customFormat="1"/>
-    <row r="18" s="4" customFormat="1"/>
-    <row r="19" s="4" customFormat="1"/>
-    <row r="20" s="4" customFormat="1"/>
-    <row r="21" s="4" customFormat="1"/>
-    <row r="22" s="4" customFormat="1"/>
-    <row r="23" s="4" customFormat="1"/>
-    <row r="24" s="4" customFormat="1"/>
-    <row r="25" s="4" customFormat="1"/>
-    <row r="26" s="4" customFormat="1"/>
-    <row r="27" s="4" customFormat="1"/>
-    <row r="28" s="4" customFormat="1"/>
-    <row r="29" s="4" customFormat="1"/>
-    <row r="30" s="4" customFormat="1"/>
-    <row r="31" s="4" customFormat="1"/>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1"/>
+    <row r="9" s="3" customFormat="1"/>
+    <row r="10" s="3" customFormat="1"/>
+    <row r="11" s="3" customFormat="1"/>
+    <row r="12" s="3" customFormat="1"/>
+    <row r="13" s="3" customFormat="1"/>
+    <row r="14" s="3" customFormat="1"/>
+    <row r="15" s="3" customFormat="1"/>
+    <row r="16" s="3" customFormat="1"/>
+    <row r="17" s="3" customFormat="1"/>
+    <row r="18" s="3" customFormat="1"/>
+    <row r="19" s="3" customFormat="1"/>
+    <row r="20" s="3" customFormat="1"/>
+    <row r="21" s="3" customFormat="1"/>
+    <row r="22" s="3" customFormat="1"/>
+    <row r="23" s="3" customFormat="1"/>
+    <row r="24" s="3" customFormat="1"/>
+    <row r="25" s="3" customFormat="1"/>
+    <row r="26" s="3" customFormat="1"/>
+    <row r="27" s="3" customFormat="1"/>
+    <row r="28" s="3" customFormat="1"/>
+    <row r="29" s="3" customFormat="1"/>
+    <row r="30" s="3" customFormat="1"/>
+    <row r="31" s="3" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
@@ -1760,19 +2262,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1780,16 +2282,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1797,16 +2299,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1814,16 +2316,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1831,16 +2333,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1848,16 +2350,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1865,14 +2367,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1880,16 +2382,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1897,16 +2399,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1914,16 +2416,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1931,16 +2433,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1948,16 +2450,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1965,13 +2467,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1979,10 +2481,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1990,10 +2492,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2001,10 +2503,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2012,10 +2514,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2023,10 +2525,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2034,10 +2536,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2045,10 +2547,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2056,10 +2558,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2067,10 +2569,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2078,10 +2580,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2089,10 +2591,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2100,10 +2602,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2111,16 +2613,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2128,16 +2630,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2145,16 +2647,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2162,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2179,13 +2681,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2193,16 +2695,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2210,16 +2712,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2227,16 +2729,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2244,16 +2746,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2261,16 +2763,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2278,14 +2780,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2293,28 +2795,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>118</v>
+      <c r="B38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/实体配置相关/单位配置.xlsx
+++ b/配置文档/实体配置相关/单位配置.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" firstSheet="1"/>
+    <workbookView windowHeight="17655" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_UnitData_单位基础表" sheetId="1" r:id="rId1"/>
     <sheet name="cfg_UnitLogic_单位逻辑表" sheetId="4" r:id="rId2"/>
     <sheet name="数据类型" sheetId="2" r:id="rId3"/>
+    <sheet name="单位类型运动" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2">数据类型!#REF!</definedName>
@@ -42,9 +43,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="152">
-  <si>
-    <t>字段导出设置
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="160">
+  <si>
+    <t>该表用于配置单位基础数据，包括单位名称，攻击基础逻辑等
 默认#BASEVALUE</t>
   </si>
   <si>
@@ -123,98 +124,71 @@
     <t>原名-士兵，中距离，激光</t>
   </si>
   <si>
-    <t>撞击轮</t>
-  </si>
-  <si>
-    <t>原名-猎犬，近战，实弹</t>
-  </si>
-  <si>
-    <t>锯片</t>
-  </si>
-  <si>
-    <t>原名-电锯突击手，近战，实弹</t>
-  </si>
-  <si>
-    <t>牙钳</t>
-  </si>
-  <si>
-    <t>近战，实弹</t>
-  </si>
-  <si>
-    <t>分形</t>
-  </si>
-  <si>
-    <t>射手</t>
-  </si>
-  <si>
-    <t>原名-突击兵，中距离，实弹</t>
-  </si>
-  <si>
-    <t>电锯</t>
-  </si>
-  <si>
-    <t>原名-好战者，近战，实弹</t>
-  </si>
-  <si>
-    <t>喷火者</t>
-  </si>
-  <si>
-    <t>近距离，爆炸，燃烧</t>
-  </si>
-  <si>
-    <t>胶囊</t>
-  </si>
-  <si>
-    <t>近战，实弹，运输</t>
-  </si>
-  <si>
-    <t>尖刺</t>
-  </si>
-  <si>
-    <t>原名-尖刺勇士，远程，爆炸</t>
-  </si>
-  <si>
-    <t>侍卫</t>
-  </si>
-  <si>
-    <t>持有护盾</t>
-  </si>
-  <si>
-    <t>电击</t>
-  </si>
-  <si>
-    <t>近距离，激光，电磁</t>
-  </si>
-  <si>
-    <t>刺击者</t>
-  </si>
-  <si>
-    <t>双联射手</t>
-  </si>
-  <si>
-    <t>原名-攻击者，中距离，实弹</t>
-  </si>
-  <si>
-    <t>火炮手</t>
-  </si>
-  <si>
-    <t>远距离，实弹</t>
-  </si>
-  <si>
-    <t>轰击</t>
-  </si>
-  <si>
-    <t>近距离，爆炸</t>
-  </si>
-  <si>
-    <t>溶解</t>
-  </si>
-  <si>
-    <t>近距离，爆炸，腐化</t>
+    <t>作战人形</t>
+  </si>
+  <si>
+    <t>成群结队，弱小，中程，物理，中距离攻击</t>
+  </si>
+  <si>
+    <t>投掷人形</t>
+  </si>
+  <si>
+    <t>成群结队，弱小，近程，爆炸，近距离攻击，会投掷爆炸伤害的手榴弹</t>
+  </si>
+  <si>
+    <t>装甲人形</t>
+  </si>
+  <si>
+    <t>成群结队，近战，物理，拥有装甲，防御力强</t>
+  </si>
+  <si>
+    <t>自爆人形</t>
+  </si>
+  <si>
+    <t>成群结队，近战，爆炸，靠近目标后会爆炸，产生小范围的爆炸伤害</t>
+  </si>
+  <si>
+    <t>射手人形</t>
+  </si>
+  <si>
+    <t>成群结队，远程，物理，装备双枪，会持续射击</t>
+  </si>
+  <si>
+    <t>字段导出设置
+默认#BASEVALUE</t>
+  </si>
+  <si>
+    <t>单位名称-备注</t>
   </si>
   <si>
     <t>单位类型
-1 陆军</t>
+0 常规陆军 使用导航层1
+在地面移动的陆军
+1 爬行单位 导航层1和2
+2 悬浮单位 导航层1和3
+3 空军-战斗机类型 导航层1-4
+指没有通常加速减速过程，向目标移动并且盘旋的空军
+也用于表示使用对应的导航层</t>
+  </si>
+  <si>
+    <t>武器列表
+(武器id,坐标X，坐标Y) 坐标单位像素</t>
+  </si>
+  <si>
+    <t>攻击时是否可以移动
+默认 true</t>
+  </si>
+  <si>
+    <t>强制攻击范围
+该范围内的敌对目标将被单位所有武器强制攻击
+该功能用于防止建筑阻挡寻路路径
+0表示不使用</t>
+  </si>
+  <si>
+    <t>与寻路终点的最近距离
+寻路到与终点在该距离内时，认为是已经达到终点
+要求尽量大于
+ForceAttackRange强制攻击范围</t>
   </si>
   <si>
     <t>是否可以旋转武器
@@ -227,7 +201,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>UnitAIType</t>
+  </si>
+  <si>
+    <t>WeaponList</t>
+  </si>
+  <si>
+    <t>#AttackIsMove</t>
+  </si>
+  <si>
+    <t>#ForceAttackRange</t>
+  </si>
+  <si>
+    <t>PathfindingDis</t>
   </si>
   <si>
     <t>IsRotateWeapon</t>
@@ -236,9 +222,21 @@
     <t>ImmuneList</t>
   </si>
   <si>
+    <t>&lt;(INT)&gt;</t>
+  </si>
+  <si>
     <t>BOOL</t>
   </si>
   <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>(1001,0,0)</t>
+  </si>
+  <si>
+    <t>(4001,0,0)</t>
+  </si>
+  <si>
     <t>数据类型编号</t>
   </si>
   <si>
@@ -290,9 +288,6 @@
     <t>52122122111111</t>
   </si>
   <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
     <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
   </si>
   <si>
@@ -383,9 +378,6 @@
     <t>&lt;(SHORT)&gt;</t>
   </si>
   <si>
-    <t>&lt;(INT)&gt;</t>
-  </si>
-  <si>
     <t>&lt;(LONG)&gt;</t>
   </si>
   <si>
@@ -504,6 +496,54 @@
   </si>
   <si>
     <t>1|2|3|4</t>
+  </si>
+  <si>
+    <t>运动id</t>
+  </si>
+  <si>
+    <t>运动类型名称</t>
+  </si>
+  <si>
+    <t>是否可以通过地面</t>
+  </si>
+  <si>
+    <t>是否可以通过墙壁</t>
+  </si>
+  <si>
+    <t>是否可以通过悬崖</t>
+  </si>
+  <si>
+    <t>是否可以通过不可建造地面</t>
+  </si>
+  <si>
+    <t>是否可以通过沼泽</t>
+  </si>
+  <si>
+    <t>是否可以通过熔岩</t>
+  </si>
+  <si>
+    <t>是否可以通过边缘</t>
+  </si>
+  <si>
+    <t>MovementName</t>
+  </si>
+  <si>
+    <t>陆地</t>
+  </si>
+  <si>
+    <t>爬行</t>
+  </si>
+  <si>
+    <t>悬浮</t>
+  </si>
+  <si>
+    <t>飞行</t>
+  </si>
+  <si>
+    <t>陆地-熔岩</t>
+  </si>
+  <si>
+    <t>两栖</t>
   </si>
 </sst>
 </file>
@@ -516,7 +556,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +575,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -700,7 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,12 +826,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,12 +915,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -885,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -905,6 +952,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,152 +1088,161 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,8 +1252,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1511,539 +1603,300 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.325" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.0833333333333" style="3" customWidth="1"/>
-    <col min="5" max="7" width="17.325" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="15.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="3" width="17.325" customWidth="1"/>
+    <col min="4" max="4" width="66.9583333333333" customWidth="1"/>
+    <col min="5" max="5" width="35.975" customWidth="1"/>
+    <col min="6" max="7" width="17.325" customWidth="1"/>
+    <col min="8" max="16382" width="15.75" customWidth="1"/>
+    <col min="16383" max="16383" width="15.75"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="57" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" customFormat="1" spans="1:7">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+    <row r="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
         <v>2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="16">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+    <row r="4" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17">
         <v>1001</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
         <v>1002</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17">
         <v>1003</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1004</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    <row r="8" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17">
+        <v>700001</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1005</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="9" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17">
+        <v>700002</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1006</v>
-      </c>
-      <c r="C10" s="7" t="s">
+    <row r="10" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17">
+        <v>700003</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1007</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    <row r="11" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17">
+        <v>700004</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1008</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
+    <row r="12" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A12" s="17">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17">
+        <v>700005</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1009</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1010</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1011</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1012</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A17" s="7">
-        <v>1</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1013</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1014</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A19" s="7">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1015</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A20" s="7">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1017</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A22" s="7">
-        <v>1</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1018</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1019</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="13" ht="45" customHeight="1"/>
+    <row r="14" ht="45" customHeight="1"/>
+    <row r="15" ht="45" customHeight="1"/>
+    <row r="16" ht="45" customHeight="1"/>
+    <row r="17" ht="45" customHeight="1"/>
+    <row r="18" ht="45" customHeight="1"/>
+    <row r="19" ht="45" customHeight="1"/>
+    <row r="20" ht="45" customHeight="1"/>
+    <row r="21" ht="45" customHeight="1"/>
+    <row r="22" ht="45" customHeight="1"/>
+    <row r="23" ht="45" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
@@ -2059,182 +1912,451 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
     <col min="2" max="2" width="31.325" customWidth="1"/>
-    <col min="3" max="3" width="14.675" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="6" width="34.9916666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.9666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.6083333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.9583333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.275" customWidth="1"/>
+    <col min="7" max="7" width="5.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="31.2916666666667" customWidth="1"/>
+    <col min="9" max="10" width="34.9916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" ht="128.25" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:10">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+      <c r="J2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2001</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
+    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>700001</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1">
+        <v>120</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="3:6">
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13">
+        <v>700002</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1">
+        <v>120</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1"/>
-    <row r="9" s="3" customFormat="1"/>
-    <row r="10" s="3" customFormat="1"/>
-    <row r="11" s="3" customFormat="1"/>
-    <row r="12" s="3" customFormat="1"/>
-    <row r="13" s="3" customFormat="1"/>
-    <row r="14" s="3" customFormat="1"/>
-    <row r="15" s="3" customFormat="1"/>
-    <row r="16" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1"/>
-    <row r="18" s="3" customFormat="1"/>
-    <row r="19" s="3" customFormat="1"/>
-    <row r="20" s="3" customFormat="1"/>
-    <row r="21" s="3" customFormat="1"/>
-    <row r="22" s="3" customFormat="1"/>
-    <row r="23" s="3" customFormat="1"/>
-    <row r="24" s="3" customFormat="1"/>
-    <row r="25" s="3" customFormat="1"/>
-    <row r="26" s="3" customFormat="1"/>
-    <row r="27" s="3" customFormat="1"/>
-    <row r="28" s="3" customFormat="1"/>
-    <row r="29" s="3" customFormat="1"/>
-    <row r="30" s="3" customFormat="1"/>
-    <row r="31" s="3" customFormat="1"/>
+    <row r="10" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>700003</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>120</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>700004</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>700005</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="5:5">
+      <c r="E13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="5:5">
+      <c r="E14"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="5:5">
+      <c r="E15"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="5:5">
+      <c r="E16"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="5:5">
+      <c r="E17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="5:5">
+      <c r="E18"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="5:5">
+      <c r="E19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="5:5">
+      <c r="E20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="5:5">
+      <c r="E21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="5:5">
+      <c r="E22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="5:5">
+      <c r="E23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="5:5">
+      <c r="E24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="5:5">
+      <c r="E25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="5:5">
+      <c r="E26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="5:5">
+      <c r="E27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="5:5">
+      <c r="E28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="5:5">
+      <c r="E29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="5:5">
+      <c r="E30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="5:5">
+      <c r="E31"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 F4:J4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2249,578 +2371,979 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D57" sqref="D56:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E6" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C21" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C25" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+      <c r="C26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E33" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E34" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="E35" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="C38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="9" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="119" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:J4">
+      <formula1>数据类型!$B$2:$B$56</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/配置文档/实体配置相关/单位配置.xlsx
+++ b/配置文档/实体配置相关/单位配置.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -34,6 +34,61 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_0A5CE180590A44849EDD25154A69C4BF" descr="好战者"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19044285" y="4206875"/>
+          <a:ext cx="714375" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_26A1FA193C98493C99C09878E58707D9" descr="刺击者外壳"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19177635" y="5616575"/>
+          <a:ext cx="914400" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" odcFile="F:\Remnant Afterglow Project\工具\基础配置\数据类型.accdb 数据类型.odc" name="连接" type="1" refreshOnLoad="1" background="1" refreshedVersion="2" saveData="1">
@@ -43,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="223">
   <si>
     <t>该表用于配置单位基础数据，包括单位名称，攻击基础逻辑等
 默认#BASEVALUE</t>
@@ -70,6 +125,19 @@
     <t>阴影偏移</t>
   </si>
   <si>
+    <t>是否有武器机壳</t>
+  </si>
+  <si>
+    <t>武器机壳是否
+跟随锁定目标旋转</t>
+  </si>
+  <si>
+    <t>武器机壳旋转速度</t>
+  </si>
+  <si>
+    <t>武器机壳图片</t>
+  </si>
+  <si>
     <t>字段导出设置</t>
   </si>
   <si>
@@ -82,7 +150,7 @@
     <t>UnitName</t>
   </si>
   <si>
-    <t>AnimaTypeList</t>
+    <t>&lt;1|2&gt;#AnimaTypeList</t>
   </si>
   <si>
     <t>ShadowSprite</t>
@@ -91,6 +159,18 @@
     <t>ShadowOffset</t>
   </si>
   <si>
+    <t>&lt;FALSE&gt;#IsChassis</t>
+  </si>
+  <si>
+    <t>&lt;TRUE&gt;#IsRotate</t>
+  </si>
+  <si>
+    <t>&lt;90&gt;#RotationSpeed</t>
+  </si>
+  <si>
+    <t>#ChassisImg</t>
+  </si>
+  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -109,6 +189,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>BOOL</t>
+  </si>
+  <si>
     <t>自律体-1</t>
   </si>
   <si>
@@ -118,40 +201,133 @@
     <t>自律体-2</t>
   </si>
   <si>
-    <t>轮胎</t>
-  </si>
-  <si>
-    <t>原名-士兵，中距离，激光</t>
+    <t>装甲人形</t>
+  </si>
+  <si>
+    <t>小型，近战，物理，拥有装甲，防御力强</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>自爆人形</t>
+  </si>
+  <si>
+    <t>小型，近战，爆炸，靠近目标后会爆炸，产生小范围的爆炸伤害</t>
+  </si>
+  <si>
+    <t>好战者</t>
+  </si>
+  <si>
+    <t>中型，近战</t>
+  </si>
+  <si>
+    <t>翻越者</t>
+  </si>
+  <si>
+    <t>刺击者</t>
+  </si>
+  <si>
+    <t>胶囊</t>
+  </si>
+  <si>
+    <t>自爆，运输</t>
+  </si>
+  <si>
+    <t>速射战车</t>
+  </si>
+  <si>
+    <t>中小型，轻型机动车辆，装备一门速射炮，可以快速突破防线</t>
+  </si>
+  <si>
+    <t>臼炮战车</t>
+  </si>
+  <si>
+    <t>中小型，轻型机动车辆，装备火力臼炮，快速抵达目标周围进行火力输出</t>
   </si>
   <si>
     <t>作战人形</t>
   </si>
   <si>
-    <t>成群结队，弱小，中程，物理，中距离攻击</t>
-  </si>
-  <si>
-    <t>投掷人形</t>
-  </si>
-  <si>
-    <t>成群结队，弱小，近程，爆炸，近距离攻击，会投掷爆炸伤害的手榴弹</t>
-  </si>
-  <si>
-    <t>装甲人形</t>
-  </si>
-  <si>
-    <t>成群结队，近战，物理，拥有装甲，防御力强</t>
-  </si>
-  <si>
-    <t>自爆人形</t>
-  </si>
-  <si>
-    <t>成群结队，近战，爆炸，靠近目标后会爆炸，产生小范围的爆炸伤害</t>
+    <t>中程</t>
   </si>
   <si>
     <t>射手人形</t>
   </si>
   <si>
     <t>成群结队，远程，物理，装备双枪，会持续射击</t>
+  </si>
+  <si>
+    <t>枪手</t>
+  </si>
+  <si>
+    <t>中型，远程</t>
+  </si>
+  <si>
+    <t>等离子</t>
+  </si>
+  <si>
+    <t>极远程，超远程攻击，是大多数炮塔的梦魇，本体脆弱，可尝试用道具消灭</t>
+  </si>
+  <si>
+    <t>怒火级陆行舰</t>
+  </si>
+  <si>
+    <t>一种来自远古的沙漠陆行舰设计，在沙漠中运输的高效手段，如今上方已经搭载了大量的火力炮塔，随时作战</t>
+  </si>
+  <si>
+    <t>冲击钻头</t>
+  </si>
+  <si>
+    <t>中型，攻城</t>
+  </si>
+  <si>
+    <t>推土机</t>
+  </si>
+  <si>
+    <t>中型，攻城，护甲</t>
+  </si>
+  <si>
+    <t>干扰体</t>
+  </si>
+  <si>
+    <t>侦测者</t>
+  </si>
+  <si>
+    <t>加固侦测者</t>
+  </si>
+  <si>
+    <t>干扰侦测者</t>
+  </si>
+  <si>
+    <t>导弹攻坚者</t>
+  </si>
+  <si>
+    <t>大型导弹攻坚者</t>
+  </si>
+  <si>
+    <t>小型炮艇</t>
+  </si>
+  <si>
+    <t>大型炮艇</t>
+  </si>
+  <si>
+    <t>旋翼</t>
+  </si>
+  <si>
+    <t>大型旋翼</t>
+  </si>
+  <si>
+    <t>自毁者</t>
+  </si>
+  <si>
+    <t>磁壳自毁者</t>
+  </si>
+  <si>
+    <t>重投轰炸机</t>
+  </si>
+  <si>
+    <t>运输飞艇A型</t>
   </si>
   <si>
     <t>字段导出设置
@@ -161,18 +337,24 @@
     <t>单位名称-备注</t>
   </si>
   <si>
-    <t>单位类型
+    <t xml:space="preserve">单位类型
 0 常规陆军 使用导航层1
 在地面移动的陆军
-1 爬行单位 导航层1和2
-2 悬浮单位 导航层1和3
-3 空军-战斗机类型 导航层1-4
+1 爬行单位
+2 悬浮单位
+3 空军-战斗机类型
 指没有通常加速减速过程，向目标移动并且盘旋的空军
-也用于表示使用对应的导航层</t>
+4 机甲形 陆地单位
+5 机甲形 空军单位
+</t>
   </si>
   <si>
     <t>武器列表
-(武器id,坐标X，坐标Y) 坐标单位像素</t>
+(武器id,坐标X，坐标Y) 坐标单位像素(偏移中心坐标x,偏移中心坐标y)单位像素(上y-，下y+，左x-，右x+)</t>
+  </si>
+  <si>
+    <t>单位质量
+大质量物体更难被推动</t>
   </si>
   <si>
     <t>攻击时是否可以移动
@@ -207,6 +389,9 @@
     <t>WeaponList</t>
   </si>
   <si>
+    <t>Mass</t>
+  </si>
+  <si>
     <t>#AttackIsMove</t>
   </si>
   <si>
@@ -225,16 +410,82 @@
     <t>&lt;(INT)&gt;</t>
   </si>
   <si>
-    <t>BOOL</t>
-  </si>
-  <si>
     <t>FLOAT</t>
   </si>
   <si>
     <t>(1001,0,0)</t>
   </si>
   <si>
-    <t>(4001,0,0)</t>
+    <t>(7001,0,0)</t>
+  </si>
+  <si>
+    <t>(7002,0,0)</t>
+  </si>
+  <si>
+    <t>(7003,-28,10)</t>
+  </si>
+  <si>
+    <t>(7006,0,0)</t>
+  </si>
+  <si>
+    <t>(7009,-26,10)</t>
+  </si>
+  <si>
+    <t>(7010,0,0)</t>
+  </si>
+  <si>
+    <t>(8001,0,0)</t>
+  </si>
+  <si>
+    <t>(8002,0,0)</t>
+  </si>
+  <si>
+    <t>(8003,0,0)</t>
+  </si>
+  <si>
+    <t>(8004,0,0)</t>
+  </si>
+  <si>
+    <t>(8005,0,0)</t>
+  </si>
+  <si>
+    <t>(8006,0,0)</t>
+  </si>
+  <si>
+    <t>(80071,11,-9)|(80071,-11,-9)|(80072,0,-20)</t>
+  </si>
+  <si>
+    <t>(9001,0,-29)</t>
+  </si>
+  <si>
+    <t>(9002,0,-29)</t>
+  </si>
+  <si>
+    <t>(10003,0,0)</t>
+  </si>
+  <si>
+    <t>(10004,0,0)</t>
+  </si>
+  <si>
+    <t>(10005,0,0)</t>
+  </si>
+  <si>
+    <t>(10006,0,-20)|(10006,0,-10)|(10006,0,10)|(10006,0,20)</t>
+  </si>
+  <si>
+    <t>(10006,0,-40)|(10006,0,-30)|(10006,0,-20)|(10006,0,-10)|(10006,0,10)|(10006,0,20)|(10006,0,30)|(10006,0,40)</t>
+  </si>
+  <si>
+    <t>(10008,0,0)</t>
+  </si>
+  <si>
+    <t>(10009,0,0)</t>
+  </si>
+  <si>
+    <t>(10019,0,-10)|(10019,0,10)</t>
+  </si>
+  <si>
+    <t>(10019,0,-20)|(10019,0,-10)|(10019,0,10)|(10019,0,20)</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -412,9 +663,6 @@
   </si>
   <si>
     <t>语言id列表</t>
-  </si>
-  <si>
-    <t>1|2</t>
   </si>
   <si>
     <t>&lt;POINT&gt;</t>
@@ -556,7 +804,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +830,38 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -732,7 +1012,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,13 +1033,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,6 +1118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +1230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -967,6 +1265,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,137 +1401,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1252,29 +1565,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1601,305 +1965,876 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="3" width="17.325" customWidth="1"/>
-    <col min="4" max="4" width="66.9583333333333" customWidth="1"/>
-    <col min="5" max="5" width="35.975" customWidth="1"/>
-    <col min="6" max="7" width="17.325" customWidth="1"/>
-    <col min="8" max="16382" width="15.75" customWidth="1"/>
-    <col min="16383" max="16383" width="15.75"/>
+    <col min="1" max="1" width="22.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.325" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.325" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="16381" width="15.75" customWidth="1"/>
+    <col min="16382" max="16382" width="15.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+    <row r="1" customFormat="1" ht="87" customHeight="1" spans="1:11">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A2" s="15" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="I1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="11">
         <v>2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2</v>
+      </c>
+      <c r="K2" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="16" t="s">
+    <row r="3" customFormat="1" ht="21" customHeight="1" spans="1:11">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A4" s="17" t="s">
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="G3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="I3" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="J3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="45" customHeight="1" spans="1:11">
+      <c r="A5" s="27">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27">
         <v>1001</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="C5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27">
+        <v>1</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" customFormat="1" ht="45" customHeight="1" spans="1:11">
+      <c r="A6" s="27">
+        <v>1</v>
+      </c>
+      <c r="B6" s="27">
         <v>1002</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A7" s="17">
-        <v>1</v>
-      </c>
-      <c r="B7" s="17">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17">
-        <v>700001</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17">
-        <v>700002</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>21</v>
+      <c r="C6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>7001</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7002</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1" spans="1:11">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13">
+        <v>7003</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>90</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.DISPIMG("ID_0A5CE180590A44849EDD25154A69C4BF",1)</f>
+        <v>=DISPIMG("ID_0A5CE180590A44849EDD25154A69C4BF",1)</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17">
-        <v>700003</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17">
-        <v>700004</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A12" s="17">
-        <v>1</v>
-      </c>
-      <c r="B12" s="17">
-        <v>700005</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>7006</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="45" customHeight="1"/>
-    <row r="14" ht="45" customHeight="1"/>
-    <row r="15" ht="45" customHeight="1"/>
-    <row r="16" ht="45" customHeight="1"/>
-    <row r="17" ht="45" customHeight="1"/>
-    <row r="18" ht="45" customHeight="1"/>
-    <row r="19" ht="45" customHeight="1"/>
-    <row r="20" ht="45" customHeight="1"/>
-    <row r="21" ht="45" customHeight="1"/>
-    <row r="22" ht="45" customHeight="1"/>
-    <row r="23" ht="45" customHeight="1"/>
+      <c r="F10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" s="20" customFormat="1" ht="45" customHeight="1" spans="1:11">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>7009</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.DISPIMG("ID_26A1FA193C98493C99C09878E58707D9",1)</f>
+        <v>=DISPIMG("ID_26A1FA193C98493C99C09878E58707D9",1)</v>
+      </c>
+    </row>
+    <row r="12" s="20" customFormat="1" ht="45" customHeight="1" spans="1:11">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>7010</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:9">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15">
+        <v>8005</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" ht="45" customHeight="1" spans="1:9">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>8006</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:7">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15">
+        <v>8001</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:7">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15">
+        <v>8002</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1" spans="1:7">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="15">
+        <v>8003</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>8004</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="24" spans="1:7">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="15">
+        <v>8007</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1" spans="1:7">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16">
+        <v>9001</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16">
+        <v>9002</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="17">
+        <v>10001</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="17">
+        <v>10003</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17">
+        <v>10004</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="17">
+        <v>10005</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="17">
+        <v>10006</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="17">
+        <v>10007</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="17">
+        <v>10008</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="17">
+        <v>10009</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="17">
+        <v>10019</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="17">
+        <v>10020</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="17">
+        <v>10023</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="17">
+        <v>10024</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="17">
+        <v>10025</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17">
+        <v>10031</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4 J4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -1912,10 +2847,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1924,48 +2861,51 @@
     <col min="2" max="2" width="31.325" customWidth="1"/>
     <col min="3" max="3" width="15.9666666666667" customWidth="1"/>
     <col min="4" max="4" width="32.6083333333333" customWidth="1"/>
-    <col min="5" max="5" width="21.9583333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.275" customWidth="1"/>
-    <col min="7" max="7" width="5.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="31.2916666666667" customWidth="1"/>
-    <col min="9" max="10" width="34.9916666666667" customWidth="1"/>
+    <col min="5" max="5" width="34.1333333333333" customWidth="1"/>
+    <col min="6" max="7" width="18.275" customWidth="1"/>
+    <col min="8" max="8" width="25.15" customWidth="1"/>
+    <col min="9" max="9" width="31.2916666666667" customWidth="1"/>
+    <col min="10" max="11" width="34.9916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="128.25" spans="1:10">
+    <row r="1" ht="156.75" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:10">
+        <v>83</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -1979,87 +2919,96 @@
       <c r="E2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="11">
         <v>2</v>
       </c>
       <c r="I2" s="9">
         <v>2</v>
       </c>
       <c r="J2" s="9">
+        <v>2</v>
+      </c>
+      <c r="K2" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" ht="14.25" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:10">
+        <v>92</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>54</v>
+        <v>94</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2067,31 +3016,34 @@
         <v>1001</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>80</v>
       </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="J5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2099,264 +3051,1040 @@
         <v>1002</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>80</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>7001</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>80</v>
+      </c>
+      <c r="I7" s="1">
+        <v>160</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7002</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>80</v>
+      </c>
+      <c r="I8" s="1">
+        <v>160</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:11">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13">
+        <v>7003</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>80</v>
+      </c>
+      <c r="I9" s="1">
+        <v>160</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>7006</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1">
+        <v>160</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:11">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>7009</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1">
+        <v>160</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:11">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>7010</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1">
+        <v>80</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:11">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15">
+        <v>8001</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>80</v>
+      </c>
+      <c r="I13" s="1">
+        <v>160</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:11">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>8002</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>80</v>
+      </c>
+      <c r="I14" s="1">
+        <v>160</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:11">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15">
+        <v>8003</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>80</v>
+      </c>
+      <c r="I15" s="1">
+        <v>160</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15">
+        <v>8004</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>80</v>
+      </c>
+      <c r="I16" s="1">
+        <v>160</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:11">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="15">
+        <v>8005</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>80</v>
+      </c>
+      <c r="I17" s="1">
+        <v>160</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:11">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>8006</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1">
+        <v>160</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="24" spans="1:11">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="15">
+        <v>8007</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
         <v>80</v>
       </c>
-      <c r="I6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="I7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13">
-        <v>700001</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="I19" s="1">
+        <v>160</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16">
+        <v>9001</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1">
+        <v>160</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:11">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16">
+        <v>9002</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>80</v>
+      </c>
+      <c r="I21" s="1">
+        <v>160</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:11">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="17">
+        <v>10001</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>80</v>
+      </c>
+      <c r="I22" s="1">
+        <v>80</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:11">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="17">
+        <v>10003</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1">
+        <v>80</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:11">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="17">
+        <v>10004</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>80</v>
+      </c>
+      <c r="I24" s="1">
+        <v>80</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:11">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="17">
+        <v>10005</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>80</v>
+      </c>
+      <c r="I25" s="1">
+        <v>80</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="24" spans="1:11">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17">
+        <v>10006</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>80</v>
+      </c>
+      <c r="I26" s="1">
+        <v>80</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="48" spans="1:11">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="17">
+        <v>10007</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>80</v>
+      </c>
+      <c r="I27" s="1">
+        <v>80</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:11">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="17">
+        <v>10008</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>80</v>
+      </c>
+      <c r="I28" s="1">
+        <v>80</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:11">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="17">
+        <v>10009</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <v>80</v>
+      </c>
+      <c r="I29" s="1">
+        <v>80</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="17">
+        <v>10019</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1">
+        <v>80</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="17">
+        <v>10020</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13">
-        <v>700002</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>40</v>
-      </c>
-      <c r="H9" s="1">
-        <v>120</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13">
-        <v>700003</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1">
-        <v>120</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13">
-        <v>700004</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1">
-        <v>120</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13">
-        <v>700005</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1">
-        <v>120</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="5:5">
-      <c r="E13"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="5:5">
-      <c r="E14"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="5:5">
-      <c r="E15"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="5:5">
-      <c r="E16"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="5:5">
-      <c r="E17"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="5:5">
-      <c r="E18"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="5:5">
-      <c r="E19"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="5:5">
-      <c r="E20"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="5:5">
-      <c r="E21"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="5:5">
-      <c r="E22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="5:5">
-      <c r="E23"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="5:5">
-      <c r="E24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="5:5">
-      <c r="E25"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="5:5">
-      <c r="E26"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="5:5">
-      <c r="E27"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="5:5">
-      <c r="E28"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="5:5">
-      <c r="E29"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="5:5">
-      <c r="E30"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="5:5">
-      <c r="E31"/>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>80</v>
+      </c>
+      <c r="I31" s="1">
+        <v>80</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="17">
+        <v>10023</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14">
+        <v>80</v>
+      </c>
+      <c r="I32" s="1">
+        <v>80</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="17">
+        <v>10024</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14">
+        <v>80</v>
+      </c>
+      <c r="I33" s="1">
+        <v>80</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="17">
+        <v>10025</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="14">
+        <v>80</v>
+      </c>
+      <c r="I34" s="1">
+        <v>80</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="17">
+        <v>10031</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="14">
+        <v>80</v>
+      </c>
+      <c r="I35" s="1">
+        <v>80</v>
+      </c>
+      <c r="J35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 F4:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 F4:K4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2384,19 +4112,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2404,16 +4132,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2421,16 +4149,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2438,16 +4166,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2455,16 +4183,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2472,16 +4200,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2489,14 +4217,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2504,16 +4232,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2521,16 +4249,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2538,16 +4266,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2555,16 +4283,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2572,16 +4300,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2589,13 +4317,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2603,10 +4331,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2614,10 +4342,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2625,10 +4353,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2636,10 +4364,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2647,10 +4375,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2658,10 +4386,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2669,10 +4397,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2680,10 +4408,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2691,10 +4419,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2702,10 +4430,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2713,10 +4441,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2724,10 +4452,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2735,16 +4463,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2752,16 +4480,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2769,16 +4497,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2786,16 +4514,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2803,13 +4531,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2817,16 +4545,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2834,16 +4562,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2851,16 +4579,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2868,16 +4596,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2885,16 +4613,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2902,14 +4630,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2917,11 +4645,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2929,16 +4657,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2952,8 +4680,8 @@
   <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2963,39 +4691,39 @@
   <sheetData>
     <row r="1" ht="119" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -3027,11 +4755,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3043,34 +4771,34 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -3081,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>1</v>
@@ -3113,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
@@ -3145,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
@@ -3177,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
@@ -3209,7 +4937,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
@@ -3241,7 +4969,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
